--- a/cctv2/locators.xlsx
+++ b/cctv2/locators.xlsx
@@ -4,25 +4,50 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21270" windowHeight="10485"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="T0" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>t0login</t>
-  </si>
-  <si>
-    <t>t000004775</t>
-  </si>
-  <si>
-    <t>Mouse12!@</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>EmailAddress</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Alok</t>
+  </si>
+  <si>
+    <t>Rai</t>
+  </si>
+  <si>
+    <t>friend9831@gmail.com</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>NEWROLE</t>
   </si>
 </sst>
 </file>
@@ -375,19 +400,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,11 +423,40 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>9051869416</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C1" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
